--- a/app/automatedTest/slot/assets/GMAndOdds.xlsx
+++ b/app/automatedTest/slot/assets/GMAndOdds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="3303" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>cardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,14 +218,10 @@
     <t>simple</t>
   </si>
   <si>
-    <t>!set_grid 1 [1,1,1,1,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lineCost</t>
   </si>
   <si>
-    <t>!set_grid 1 [1,1,1,1,3]</t>
+    <t>!set_grid 1 [6,2,3,4,4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +575,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,42 +608,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/app/automatedTest/slot/assets/GMAndOdds.xlsx
+++ b/app/automatedTest/slot/assets/GMAndOdds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="3303" sheetId="1" r:id="rId1"/>
@@ -184,12 +184,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+中奖翻倍，如：
+wild 参与中奖需x2倍</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>cardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +247,10 @@
   </si>
   <si>
     <t>!set_grid 1 [6,2,3,4,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +292,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -571,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -586,7 +622,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -605,8 +641,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -625,8 +664,11 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -644,6 +686,9 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/automatedTest/slot/assets/GMAndOdds.xlsx
+++ b/app/automatedTest/slot/assets/GMAndOdds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="3303" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-GM指令</t>
+GM指令，!scroll 可以设置滚轴所有元素</t>
         </r>
       </text>
     </comment>
@@ -246,11 +246,11 @@
     <t>lineCost</t>
   </si>
   <si>
-    <t>!set_grid 1 [6,2,3,4,4]</t>
+    <t>multiply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>multiply</t>
+    <t>!scroll [1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +617,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -682,7 +682,7 @@
         <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
